--- a/Lib_Repo_Excel/FileExcel_Digisales/SCD0198 - Penyelia SRM Mengakses Menu Report - Menu Product Holding Ratio - Report.xlsx
+++ b/Lib_Repo_Excel/FileExcel_Digisales/SCD0198 - Penyelia SRM Mengakses Menu Report - Menu Product Holding Ratio - Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1442\Desktop\DigiSales\Lib_Repo_Excel\FileExcel_Digisales\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DigiSales\Lib_Repo_Excel\FileExcel_Digisales\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1B75F55-0F13-4BC6-98AF-042F025921E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D52C1CC7-1CFA-4F4E-BEC3-5705078E1248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1635" yWindow="1635" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SCD0198" sheetId="2" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>SIDEBAR_MENU</t>
   </si>
@@ -92,42 +92,6 @@
     <t>TEXT5</t>
   </si>
   <si>
-    <t>QUERY1</t>
-  </si>
-  <si>
-    <t>QUERY2</t>
-  </si>
-  <si>
-    <t>QUERY3</t>
-  </si>
-  <si>
-    <t>EXPL_QUERY1</t>
-  </si>
-  <si>
-    <t>EXPL_QUERY2</t>
-  </si>
-  <si>
-    <t>EXPL_QUERY3</t>
-  </si>
-  <si>
-    <t>USER_DB</t>
-  </si>
-  <si>
-    <t>PASSWORD_DB</t>
-  </si>
-  <si>
-    <t>HOSTNAME</t>
-  </si>
-  <si>
-    <t>sa</t>
-  </si>
-  <si>
-    <t>4eFfEJAA!</t>
-  </si>
-  <si>
-    <t>192.168.232.6</t>
-  </si>
-  <si>
     <t>Februari</t>
   </si>
   <si>
@@ -135,9 +99,6 @@
   </si>
   <si>
     <t>Penyelia SRM</t>
-  </si>
-  <si>
-    <t>SELECT * FROM DigisalesNew..Tbl_Pegawai WHERE SalesTypeId='20' and LastLogin IS NOT NULL</t>
   </si>
   <si>
     <t>DGS-213</t>
@@ -211,7 +172,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -237,12 +198,26 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -552,8 +527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0EAF5E5-8229-45B3-AC11-8AED029F52F4}">
   <dimension ref="A1:Z6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,7 +540,7 @@
     <col min="5" max="5" width="37.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="28.7109375" style="1" bestFit="1" customWidth="1"/>
@@ -583,145 +558,122 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+      <c r="U1" s="9"/>
+      <c r="V1" s="9"/>
+      <c r="W1" s="9"/>
+      <c r="X1" s="9"/>
+      <c r="Y1" s="9"/>
+      <c r="Z1" s="9"/>
+    </row>
+    <row r="2" spans="1:26" ht="102" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="12">
+        <v>37400</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9">
+        <v>32587</v>
+      </c>
+      <c r="M2" s="9">
+        <v>2022</v>
+      </c>
+      <c r="N2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="X1" t="s">
+      <c r="O2" s="13"/>
+      <c r="P2" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="Y1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" ht="102" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="3">
-        <v>37400</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" s="1">
-        <v>32587</v>
-      </c>
-      <c r="M2" s="1">
-        <v>2022</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Q2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" s="10" t="str">
-        <f>"Pembuktian Sales yang ada pada User " &amp; F2</f>
-        <v>Pembuktian Sales yang ada pada User 37400</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" s="10" t="s">
-        <v>31</v>
-      </c>
+      <c r="R2" s="14"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="15"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B3" s="6"/>
